--- a/[H] Requirements Elicitation/Analysis/Codes nav_behavior_1-5 (A).xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_behavior_1-5 (A).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{82182DD9-EFA4-4505-A2A5-E2F19DBC0C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC0E9FB-0C36-4FF0-8790-463CD27099CF}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{82182DD9-EFA4-4505-A2A5-E2F19DBC0C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBCCEE39-13C8-4A33-B081-41A9FF209E35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="741" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="836" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,9 @@
     <sheet name="nav_distraction_5" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Code totals static'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Code totals static'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,37 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="41">
-  <si>
-    <t>Navigation and traffic related notifications</t>
-  </si>
-  <si>
-    <t>Bad instructions or difficulty interpreting</t>
-  </si>
-  <si>
-    <t>Navigation interferes with driving tasks</t>
-  </si>
-  <si>
-    <t>Route changes or suggestions</t>
-  </si>
-  <si>
-    <t>Conflict between other system and navigation</t>
-  </si>
-  <si>
-    <t>Navigation system failure</t>
-  </si>
-  <si>
-    <t>Traffic camera notifications</t>
-  </si>
-  <si>
-    <t>Searching what lane to take</t>
-  </si>
-  <si>
-    <t>Communication failure</t>
-  </si>
-  <si>
-    <t>Message notifications interfere with navigation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="29">
   <si>
     <t>codes1</t>
   </si>
@@ -141,12 +110,6 @@
   </si>
   <si>
     <t>salience_rel</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>category_name</t>
   </si>
   <si>
     <t>Decision making</t>
@@ -712,6 +675,896 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Code totals static'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>salience_rel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Code totals static'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Decision making</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lane position</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Response time</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Speed control</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Near collision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Code totals static'!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28193832599118945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4889867841409691E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22907488986784141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1894273127753304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21585903083700442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8105726872246704E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-192D-45DF-8FF2-3D02EE14A331}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2093787232"/>
+        <c:axId val="2093785792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2093787232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093785792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2093785792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2093787232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD262114-D474-9A46-481E-95526700D7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -1015,396 +1868,396 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1414,250 +2267,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60CCC48-A888-4C7F-8B64-E4D9AB90A8D8}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="K2:L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f>L4/SUM(L2:L8)</f>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1673,98 +2530,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3939BBE0-BF82-47B0-B607-725C035C9F91}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <f>B2/SUM(B$2:B$8)</f>
+        <v>0.17</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2,nav_distraction_1!A:D,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,nav_distraction_2!A:D,4,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(A2,nav_distraction_3!A:D,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(A2,nav_distraction_4!A:D,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(A2,nav_distraction_5!A:D,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>SUM(D2:H2)</f>
+        <v>64</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2/SUM(I$2:I$8)</f>
+        <v>0.1553398058252427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C8" si="0">B3/SUM(B$2:B$8)</f>
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(A3,nav_distraction_1!A:D,4,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3,nav_distraction_2!A:D,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(A3,nav_distraction_3!A:D,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="1">SUM(D3:H3)</f>
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J8" si="2">I3/SUM(I$2:I$8)</f>
+        <v>4.12621359223301E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(A4,nav_distraction_1!A:D,4,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4,nav_distraction_2!A:D,4,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(A4,nav_distraction_3!A:D,4,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(A4,nav_distraction_4!A:D,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(A4,nav_distraction_5!A:D,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44902912621359226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(A5,nav_distraction_1!A:D,4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,nav_distraction_2!A:D,4,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(A5,nav_distraction_3!A:D,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12621359223300971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(A6,nav_distraction_1!A:D,4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6,nav_distraction_2!A:D,4,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(A6,nav_distraction_3!A:D,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10436893203883495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(A7,nav_distraction_1!A:D,4,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7,nav_distraction_2!A:D,4,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(A7,nav_distraction_3!A:D,4,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(A7,nav_distraction_5!A:D,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11893203883495146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(A8,nav_distraction_4!A:D,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1774,123 +2817,265 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FE6662-2BC6-4F3E-9FA1-7DB710C34EA5}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A2:G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.2982456140350877</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.28193832599118945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.4889867841409691E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.22907488986784141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1894273127753304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.22807017543859648</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.21585903083700442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8.8105726872246704E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{35FE6662-2BC6-4F3E-9FA1-7DB710C34EA5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{35FE6662-2BC6-4F3E-9FA1-7DB710C34EA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEDBC6E-8A6D-481D-A02F-7F4C0D92150D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1903,139 +3088,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">C3*B3</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D7" si="0">C3*B3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2045,176 +3170,116 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F99063-E59B-47FB-8088-AF4D2985F805}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">B3*C3</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2224,31 +3289,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E3210F-3007-4CC8-9215-4E2225DE64D1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2261,109 +3326,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2373,61 +3408,61 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5706E87E-D81D-40A2-93AB-EEB08102E189}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">B3*C3</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2436,66 +3471,6 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2507,31 +3482,31 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891F874-CEDE-4F34-90D7-7E8264D1F788}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2544,9 +3519,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2555,13 +3530,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2570,36 +3545,6 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2814,7 +3759,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4712D649-7AF1-488B-88E4-28DA913648B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC2EBC4B-1875-4BAA-B529-67CE8DDB17FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/[H] Requirements Elicitation/Analysis/Codes nav_behavior_1-5 (A).xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_behavior_1-5 (A).xlsx
@@ -3555,10 +3555,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d068a515c1ed1831a1655483f43bd136">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61a36bc01df55011d34c3851fbde1e65" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3571,10 +3571,12 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3582,7 +3584,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3617,28 +3619,40 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -3759,7 +3773,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC2EBC4B-1875-4BAA-B529-67CE8DDB17FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE55F98-8ACA-447E-9D51-F5ADCA8FF1A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
